--- a/Tables/ТableOne.xlsx
+++ b/Tables/ТableOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abuti\Bot\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A9C60F-2A29-4959-B857-12D287D6B93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0CA40-DC41-40BC-B020-1AFAD35B0CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BFADE3-95B5-45DF-8008-352E2B38B7EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>пятница</t>
   </si>
@@ -64,14 +64,6 @@
   </si>
   <si>
     <t>4В</t>
-  </si>
-  <si>
-    <t>Русский
-Английский</t>
-  </si>
-  <si>
-    <t>Русский 
-Анлийский</t>
   </si>
   <si>
     <t>Математика</t>
@@ -445,7 +437,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +478,9 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -498,9 +488,7 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
